--- a/AVencer.xlsx
+++ b/AVencer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ce9537a3d4953a2/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{CA85058F-212B-4F27-81EC-8DF3364089FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D9BC27-5519-4D26-8503-C9EB141DD052}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{CA85058F-212B-4F27-81EC-8DF3364089FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10E11A0-D883-43CA-91A6-CB1A92BBFAC3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5E56FA7C-3BCA-4B6D-8FCD-C6376DEBFAFA}"/>
   </bookViews>
@@ -700,10 +700,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1025,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBEA92-FCDE-4B2C-907A-A204E25C17F0}">
   <dimension ref="A1:M378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,6 +1105,7 @@
         <v>45877.581307870365</v>
       </c>
       <c r="I2" s="7">
+        <f ca="1">TODAY()-G2</f>
         <v>-1.5812962962954771</v>
       </c>
       <c r="J2">
@@ -1150,6 +1147,7 @@
         <v>45880.500092592592</v>
       </c>
       <c r="I3" s="7">
+        <f t="shared" ref="I3:I66" ca="1" si="0">TODAY()-G3</f>
         <v>-4.5000810185156297</v>
       </c>
       <c r="J3">
@@ -1191,6 +1189,7 @@
         <v>45882.519155092588</v>
       </c>
       <c r="I4" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-6.5191550925883348</v>
       </c>
       <c r="J4">
@@ -1232,6 +1231,7 @@
         <v>45883.559317129628</v>
       </c>
       <c r="I5" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-7.5593171296277433</v>
       </c>
       <c r="J5">
@@ -1273,6 +1273,7 @@
         <v>45881.605497685181</v>
       </c>
       <c r="I6" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-5.6054976851810352</v>
       </c>
       <c r="J6">
@@ -1314,6 +1315,7 @@
         <v>45847.380937499998</v>
       </c>
       <c r="I7" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-1.3809374999982538</v>
       </c>
       <c r="J7">
@@ -1355,6 +1357,7 @@
         <v>45847.422465277778</v>
       </c>
       <c r="I8" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-1.4224537037007394</v>
       </c>
       <c r="J8">
@@ -1396,6 +1399,7 @@
         <v>45848.366585648146</v>
       </c>
       <c r="I9" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-2.3665740740689216</v>
       </c>
       <c r="J9">
@@ -1437,6 +1441,7 @@
         <v>45848.471446759257</v>
       </c>
       <c r="I10" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-2.4714467592566507</v>
       </c>
       <c r="J10">
@@ -1478,6 +1483,7 @@
         <v>45849.325613425921</v>
       </c>
       <c r="I11" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-3.325613425920892</v>
       </c>
       <c r="J11">
@@ -1519,6 +1525,7 @@
         <v>45849.335532407407</v>
       </c>
       <c r="I12" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-3.3355324074072996</v>
       </c>
       <c r="J12">
@@ -1560,6 +1567,7 @@
         <v>45852.471342592587</v>
       </c>
       <c r="I13" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-6.471331018517958</v>
       </c>
       <c r="J13">
@@ -1601,6 +1609,7 @@
         <v>45854.638101851851</v>
       </c>
       <c r="I14" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-8.6380902777746087</v>
       </c>
       <c r="J14">
@@ -1642,6 +1651,7 @@
         <v>45856.621238425927</v>
       </c>
       <c r="I15" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-10.619722222218115</v>
       </c>
       <c r="J15">
@@ -1683,6 +1693,7 @@
         <v>45859.482986111107</v>
       </c>
       <c r="I16" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-13.482986111106584</v>
       </c>
       <c r="J16">
@@ -1724,6 +1735,7 @@
         <v>45860.451805555553</v>
       </c>
       <c r="I17" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-14.45032407407416</v>
       </c>
       <c r="J17">
@@ -1765,6 +1777,7 @@
         <v>45862.5</v>
       </c>
       <c r="I18" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-16.486145833332557</v>
       </c>
       <c r="J18">
@@ -1806,6 +1819,7 @@
         <v>45862.498425925922</v>
       </c>
       <c r="I19" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-16.498425925921765</v>
       </c>
       <c r="J19">
@@ -1847,6 +1861,7 @@
         <v>45863.634120370371</v>
       </c>
       <c r="I20" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-17.634108796293731</v>
       </c>
       <c r="J20">
@@ -1888,6 +1903,7 @@
         <v>45866.473807870367</v>
       </c>
       <c r="I21" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-20.473807870366727</v>
       </c>
       <c r="J21">
@@ -1929,6 +1945,7 @@
         <v>45867.59438657407</v>
       </c>
       <c r="I22" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-21.594386574070086</v>
       </c>
       <c r="J22">
@@ -1970,6 +1987,7 @@
         <v>45869.50613425926</v>
       </c>
       <c r="I23" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-23.506122685183072</v>
       </c>
       <c r="J23">
@@ -2011,6 +2029,7 @@
         <v>45870.602442129624</v>
       </c>
       <c r="I24" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-24.601192129630363</v>
       </c>
       <c r="J24">
@@ -2052,6 +2071,7 @@
         <v>45870.616400462961</v>
       </c>
       <c r="I25" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-24.6149652777749</v>
       </c>
       <c r="J25">
@@ -2093,6 +2113,7 @@
         <v>45873.474942129629</v>
       </c>
       <c r="I26" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-27.474942129629198</v>
       </c>
       <c r="J26">
@@ -2134,6 +2155,7 @@
         <v>45874.485312500001</v>
       </c>
       <c r="I27" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-28.485312500000873</v>
       </c>
       <c r="J27">
@@ -2175,6 +2197,7 @@
         <v>45876.635960648149</v>
       </c>
       <c r="I28" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-30.635185185186856</v>
       </c>
       <c r="J28">
@@ -2216,6 +2239,7 @@
         <v>45877.372928240737</v>
       </c>
       <c r="I29" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-31.371400462958263</v>
       </c>
       <c r="J29">
@@ -2257,6 +2281,7 @@
         <v>45880.541817129626</v>
       </c>
       <c r="I30" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-34.541805555556493</v>
       </c>
       <c r="J30">
@@ -2298,6 +2323,7 @@
         <v>45881.499282407407</v>
       </c>
       <c r="I31" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-35.499270833330229</v>
       </c>
       <c r="J31">
@@ -2339,6 +2365,7 @@
         <v>45882.531006944446</v>
       </c>
       <c r="I32" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-36.530995370369055</v>
       </c>
       <c r="J32">
@@ -2380,6 +2407,7 @@
         <v>45883.618831018517</v>
       </c>
       <c r="I33" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-37.618518518516794</v>
       </c>
       <c r="J33">
@@ -2421,6 +2449,7 @@
         <v>45876.629236111112</v>
       </c>
       <c r="I34" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-0.62679398147884058</v>
       </c>
       <c r="J34">
@@ -2462,6 +2491,7 @@
         <v>45883.618368055555</v>
       </c>
       <c r="I35" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-7.6173842592543224</v>
       </c>
       <c r="J35">
@@ -2503,6 +2533,7 @@
         <v>45877.577685185184</v>
       </c>
       <c r="I36" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-1.5776851851842366</v>
       </c>
       <c r="J36">
@@ -2544,6 +2575,7 @@
         <v>45880.500196759254</v>
       </c>
       <c r="I37" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-4.5001967592543224</v>
       </c>
       <c r="J37">
@@ -2585,6 +2617,7 @@
         <v>45882.51939814815</v>
       </c>
       <c r="I38" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-6.5193865740729962</v>
       </c>
       <c r="J38">
@@ -2626,6 +2659,7 @@
         <v>45873.529606481483</v>
       </c>
       <c r="I39" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-9</v>
       </c>
       <c r="J39">
@@ -2667,6 +2701,7 @@
         <v>45875.458344907405</v>
       </c>
       <c r="I40" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-9</v>
       </c>
       <c r="J40">
@@ -2708,6 +2743,7 @@
         <v>45882.512418981481</v>
       </c>
       <c r="I41" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-9</v>
       </c>
       <c r="J41">
@@ -2749,6 +2785,7 @@
         <v>45881.499259259261</v>
       </c>
       <c r="I42" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-5.4992592592607252</v>
       </c>
       <c r="J42">
@@ -2790,6 +2827,7 @@
         <v>45881.605486111112</v>
       </c>
       <c r="I43" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-5.6054745370347518</v>
       </c>
       <c r="J43">
@@ -2831,6 +2869,7 @@
         <v>45881.462754629625</v>
       </c>
       <c r="I44" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-5.4627546296251239</v>
       </c>
       <c r="J44">
@@ -2872,6 +2911,7 @@
         <v>45881.615937499999</v>
       </c>
       <c r="I45" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-5.6151504629597184</v>
       </c>
       <c r="J45">
@@ -2913,6 +2953,7 @@
         <v>45863.525949074072</v>
       </c>
       <c r="I46" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-17.525937499995052</v>
       </c>
       <c r="J46">
@@ -2954,6 +2995,7 @@
         <v>45882.665937500002</v>
       </c>
       <c r="I47" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-36.658090277778683</v>
       </c>
       <c r="J47">
@@ -2995,6 +3037,7 @@
         <v>45882.512395833328</v>
       </c>
       <c r="I48" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-6.5123958333279006</v>
       </c>
       <c r="J48">
@@ -3036,6 +3079,7 @@
         <v>45883.634999999995</v>
       </c>
       <c r="I49" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-7.6327199074075907</v>
       </c>
       <c r="J49">
@@ -3077,6 +3121,7 @@
         <v>45877.553599537037</v>
       </c>
       <c r="I50" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-1.5520833333284827</v>
       </c>
       <c r="J50">
@@ -3118,6 +3163,7 @@
         <v>45877.585046296292</v>
       </c>
       <c r="I51" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-1.5850462962916936</v>
       </c>
       <c r="J51">
@@ -3159,6 +3205,7 @@
         <v>45880.500173611108</v>
       </c>
       <c r="I52" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-4.500173611108039</v>
       </c>
       <c r="J52">
@@ -3200,6 +3247,7 @@
         <v>45881.51190972222</v>
       </c>
       <c r="I53" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-5.5098032407404389</v>
       </c>
       <c r="J53">
@@ -3241,6 +3289,7 @@
         <v>45882.51930555555</v>
       </c>
       <c r="I54" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-6.5193055555500905</v>
       </c>
       <c r="J54">
@@ -3282,6 +3331,7 @@
         <v>45882.519328703704</v>
       </c>
       <c r="I55" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-6.5193171296268702</v>
       </c>
       <c r="J55">
@@ -3323,6 +3373,7 @@
         <v>45877.608969907407</v>
       </c>
       <c r="I56" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-1.60895833333052</v>
       </c>
       <c r="J56">
@@ -3364,6 +3415,7 @@
         <v>45881.407071759255</v>
       </c>
       <c r="I57" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-5.4070717592549045</v>
       </c>
       <c r="J57">
@@ -3405,6 +3457,7 @@
         <v>45877.568136574075</v>
       </c>
       <c r="I58" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-1.5681365740747424</v>
       </c>
       <c r="J58">
@@ -3446,6 +3499,7 @@
         <v>45883.631921296292</v>
       </c>
       <c r="I59" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-7.6316435185144655</v>
       </c>
       <c r="J59">
@@ -3487,6 +3541,7 @@
         <v>45877.59165509259</v>
       </c>
       <c r="I60" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-1.5916550925903721</v>
       </c>
       <c r="J60">
@@ -3528,6 +3583,7 @@
         <v>45885.25708333333</v>
       </c>
       <c r="I61" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-9.2563425925909542</v>
       </c>
       <c r="J61">
@@ -3569,6 +3625,7 @@
         <v>45882.512557870366</v>
       </c>
       <c r="I62" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-6.5125462962969323</v>
       </c>
       <c r="J62">
@@ -3610,6 +3667,7 @@
         <v>45877.5699537037</v>
       </c>
       <c r="I63" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-1.5699537036998663</v>
       </c>
       <c r="J63">
@@ -3651,6 +3709,7 @@
         <v>45882.472256944442</v>
       </c>
       <c r="I64" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-6.4722453703652718</v>
       </c>
       <c r="J64">
@@ -3692,6 +3751,7 @@
         <v>45876.634143518517</v>
       </c>
       <c r="I65" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-0.63373842592409346</v>
       </c>
       <c r="J65">
@@ -3733,6 +3793,7 @@
         <v>45880.54173611111</v>
       </c>
       <c r="I66" s="7">
+        <f t="shared" ca="1" si="0"/>
         <v>-4.5417361111103673</v>
       </c>
       <c r="J66">
@@ -3774,6 +3835,7 @@
         <v>45882.512291666666</v>
       </c>
       <c r="I67" s="7">
+        <f t="shared" ref="I67:I130" ca="1" si="1">TODAY()-G67</f>
         <v>-6.5122916666659876</v>
       </c>
       <c r="J67">
@@ -3815,6 +3877,7 @@
         <v>45882.512314814812</v>
       </c>
       <c r="I68" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.5123032407354913</v>
       </c>
       <c r="J68">
@@ -3856,6 +3919,7 @@
         <v>45882.512337962959</v>
       </c>
       <c r="I69" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.5123379629585543</v>
       </c>
       <c r="J69">
@@ -3897,6 +3961,7 @@
         <v>45882.512361111112</v>
       </c>
       <c r="I70" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.5123611111121136</v>
       </c>
       <c r="J70">
@@ -3938,6 +4003,7 @@
         <v>45882.52171296296</v>
       </c>
       <c r="I71" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.5217129629600095</v>
       </c>
       <c r="J71">
@@ -3979,6 +4045,7 @@
         <v>45882.530960648146</v>
       </c>
       <c r="I72" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.5309490740692127</v>
       </c>
       <c r="J72">
@@ -4020,6 +4087,7 @@
         <v>45880.500219907408</v>
       </c>
       <c r="I73" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-4.5002199074078817</v>
       </c>
       <c r="J73">
@@ -4061,6 +4129,7 @@
         <v>45882.519409722219</v>
       </c>
       <c r="I74" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.5194097222192795</v>
       </c>
       <c r="J74">
@@ -4102,6 +4171,7 @@
         <v>45845</v>
       </c>
       <c r="I75" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-5</v>
       </c>
       <c r="J75">
@@ -4143,6 +4213,7 @@
         <v>45859</v>
       </c>
       <c r="I76" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-12</v>
       </c>
       <c r="J76">
@@ -4184,6 +4255,7 @@
         <v>45859</v>
       </c>
       <c r="I77" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-20</v>
       </c>
       <c r="J77">
@@ -4225,6 +4297,7 @@
         <v>45867</v>
       </c>
       <c r="I78" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-24</v>
       </c>
       <c r="J78">
@@ -4266,6 +4339,7 @@
         <v>45874.540451388886</v>
       </c>
       <c r="I79" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-28.54045138888614</v>
       </c>
       <c r="J79">
@@ -4307,6 +4381,7 @@
         <v>45874.540474537032</v>
       </c>
       <c r="I80" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-28.540474537032424</v>
       </c>
       <c r="J80">
@@ -4348,6 +4423,7 @@
         <v>45874.545578703699</v>
       </c>
       <c r="I81" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-28.54556712962949</v>
       </c>
       <c r="J81">
@@ -4389,6 +4465,7 @@
         <v>45875.382025462961</v>
       </c>
       <c r="I82" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-29.382013888884103</v>
       </c>
       <c r="J82">
@@ -4430,6 +4507,7 @@
         <v>45875.382048611107</v>
       </c>
       <c r="I83" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-29.382037037037662</v>
       </c>
       <c r="J83">
@@ -4471,6 +4549,7 @@
         <v>45875.382071759261</v>
       </c>
       <c r="I84" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-29.382071759260725</v>
       </c>
       <c r="J84">
@@ -4512,6 +4591,7 @@
         <v>45877.574699074074</v>
       </c>
       <c r="I85" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-31.574687499996799</v>
       </c>
       <c r="J85">
@@ -4553,6 +4633,7 @@
         <v>45877.574710648143</v>
       </c>
       <c r="I86" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-31.574710648143082</v>
       </c>
       <c r="J86">
@@ -4594,6 +4675,7 @@
         <v>45877.574745370366</v>
       </c>
       <c r="I87" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-31.574745370366145</v>
       </c>
       <c r="J87">
@@ -4635,6 +4717,7 @@
         <v>45880</v>
       </c>
       <c r="I88" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-34</v>
       </c>
       <c r="J88">
@@ -4676,6 +4759,7 @@
         <v>45881.439479166664</v>
       </c>
       <c r="I89" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-35.439479166663659</v>
       </c>
       <c r="J89">
@@ -4717,6 +4801,7 @@
         <v>45881.439513888887</v>
       </c>
       <c r="I90" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-35.439502314809943</v>
       </c>
       <c r="J90">
@@ -4758,6 +4843,7 @@
         <v>45881.439537037033</v>
       </c>
       <c r="I91" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-35.439525462963502</v>
       </c>
       <c r="J91">
@@ -4799,6 +4885,7 @@
         <v>45881.445555555554</v>
       </c>
       <c r="I92" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-35.445555555554165</v>
       </c>
       <c r="J92">
@@ -4840,6 +4927,7 @@
         <v>45883.465648148143</v>
       </c>
       <c r="I93" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-37.465636574073869</v>
       </c>
       <c r="J93">
@@ -4881,6 +4969,7 @@
         <v>45883.465671296297</v>
       </c>
       <c r="I94" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-37.465671296296932</v>
       </c>
       <c r="J94">
@@ -4922,6 +5011,7 @@
         <v>45883.465694444443</v>
       </c>
       <c r="I95" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-37.465682870366436</v>
       </c>
       <c r="J95">
@@ -4963,6 +5053,7 @@
         <v>45877.65898148148</v>
       </c>
       <c r="I96" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-1.6549652777757728</v>
       </c>
       <c r="J96">
@@ -5004,6 +5095,7 @@
         <v>45881.699270833335</v>
       </c>
       <c r="I97" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.6901967592566507</v>
       </c>
       <c r="J97">
@@ -5045,6 +5137,7 @@
         <v>45882.472349537034</v>
       </c>
       <c r="I98" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.4723495370344608</v>
       </c>
       <c r="J98">
@@ -5086,6 +5179,7 @@
         <v>45876.519976851851</v>
       </c>
       <c r="I99" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-0.51971064814279089</v>
       </c>
       <c r="J99">
@@ -5127,6 +5221,7 @@
         <v>45882.531030092592</v>
       </c>
       <c r="I100" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.5310300925921183</v>
       </c>
       <c r="J100">
@@ -5168,6 +5263,7 @@
         <v>45870.566979166666</v>
       </c>
       <c r="I101" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-9.5669791666659876</v>
       </c>
       <c r="J101">
@@ -5209,6 +5305,7 @@
         <v>45881.337465277778</v>
       </c>
       <c r="I102" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-20.336296296292858</v>
       </c>
       <c r="J102">
@@ -5250,6 +5347,7 @@
         <v>45881.40719907407</v>
       </c>
       <c r="I103" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.4071990740703768</v>
       </c>
       <c r="J103">
@@ -5291,6 +5389,7 @@
         <v>45881.40724537037</v>
       </c>
       <c r="I104" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.4072453703702195</v>
       </c>
       <c r="J104">
@@ -5332,6 +5431,7 @@
         <v>45877.602442129624</v>
       </c>
       <c r="I105" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-1.6024421296242508</v>
       </c>
       <c r="J105">
@@ -5373,6 +5473,7 @@
         <v>45881.462858796294</v>
       </c>
       <c r="I106" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.4628587962943129</v>
       </c>
       <c r="J106">
@@ -5414,6 +5515,7 @@
         <v>45882.374826388885</v>
       </c>
       <c r="I107" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.374826388884685</v>
       </c>
       <c r="J107">
@@ -5455,6 +5557,7 @@
         <v>45861.413842592592</v>
       </c>
       <c r="I108" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-0.41328703703766223</v>
       </c>
       <c r="J108">
@@ -5496,6 +5599,7 @@
         <v>45870.566944444443</v>
       </c>
       <c r="I109" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-9.5669328703661449</v>
       </c>
       <c r="J109">
@@ -5537,6 +5641,7 @@
         <v>45877.603125000001</v>
       </c>
       <c r="I110" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-1.6031134259246755</v>
       </c>
       <c r="J110">
@@ -5578,6 +5683,7 @@
         <v>45881.407233796293</v>
       </c>
       <c r="I111" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.4072222222239361</v>
       </c>
       <c r="J111">
@@ -5619,6 +5725,7 @@
         <v>45881.462800925925</v>
       </c>
       <c r="I112" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.4628009259249666</v>
       </c>
       <c r="J112">
@@ -5660,6 +5767,7 @@
         <v>45883.561006944445</v>
       </c>
       <c r="I113" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.5610069444446708</v>
       </c>
       <c r="J113">
@@ -5701,6 +5809,7 @@
         <v>45877.574837962959</v>
       </c>
       <c r="I114" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-1.5748379629585543</v>
       </c>
       <c r="J114">
@@ -5742,6 +5851,7 @@
         <v>45881.439606481479</v>
       </c>
       <c r="I115" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.4396064814791316</v>
       </c>
       <c r="J115">
@@ -5783,6 +5893,7 @@
         <v>45883.465810185182</v>
       </c>
       <c r="I116" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.4658101851819083</v>
       </c>
       <c r="J116">
@@ -5824,6 +5935,7 @@
         <v>45876.359571759254</v>
       </c>
       <c r="I117" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-0.35957175925432239</v>
       </c>
       <c r="J117">
@@ -5865,6 +5977,7 @@
         <v>45876.359594907408</v>
       </c>
       <c r="I118" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-0.35959490740788169</v>
       </c>
       <c r="J118">
@@ -5906,6 +6019,7 @@
         <v>45876.359629629631</v>
       </c>
       <c r="I119" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-0.35961805555416504</v>
       </c>
       <c r="J119">
@@ -5947,6 +6061,7 @@
         <v>45876.359652777777</v>
       </c>
       <c r="I120" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-0.35965277777722804</v>
       </c>
       <c r="J120">
@@ -5988,6 +6103,7 @@
         <v>45877.605347222219</v>
       </c>
       <c r="I121" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-1.6053472222192795</v>
       </c>
       <c r="J121">
@@ -6029,6 +6145,7 @@
         <v>45877.605370370366</v>
       </c>
       <c r="I122" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-1.6053703703655628</v>
       </c>
       <c r="J122">
@@ -6070,6 +6187,7 @@
         <v>45877.605405092589</v>
       </c>
       <c r="I123" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-1.6053935185191222</v>
       </c>
       <c r="J123">
@@ -6111,6 +6229,7 @@
         <v>45877.605439814812</v>
       </c>
       <c r="I124" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-1.6054282407421852</v>
       </c>
       <c r="J124">
@@ -6152,6 +6271,7 @@
         <v>45880.466296296298</v>
       </c>
       <c r="I125" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-4.4656018518508063</v>
       </c>
       <c r="J125">
@@ -6193,6 +6313,7 @@
         <v>45880.467511574076</v>
       </c>
       <c r="I126" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-4.466481481482333</v>
       </c>
       <c r="J126">
@@ -6234,6 +6355,7 @@
         <v>45880.468171296292</v>
       </c>
       <c r="I127" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-4.4676736111068749</v>
       </c>
       <c r="J127">
@@ -6275,6 +6397,7 @@
         <v>45880.468842592592</v>
       </c>
       <c r="I128" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-4.4683217592537403</v>
       </c>
       <c r="J128">
@@ -6316,6 +6439,7 @@
         <v>45880.472824074073</v>
       </c>
       <c r="I129" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-4.4724305555500905</v>
       </c>
       <c r="J129">
@@ -6357,6 +6481,7 @@
         <v>45881.357291666667</v>
       </c>
       <c r="I130" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.3548611111109494</v>
       </c>
       <c r="J130">
@@ -6398,6 +6523,7 @@
         <v>45881.358240740738</v>
       </c>
       <c r="I131" s="7">
+        <f t="shared" ref="I131:I194" ca="1" si="2">TODAY()-G131</f>
         <v>-5.3576157407369465</v>
       </c>
       <c r="J131">
@@ -6439,6 +6565,7 @@
         <v>45881.462673611109</v>
       </c>
       <c r="I132" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-5.4626736111094942</v>
       </c>
       <c r="J132">
@@ -6480,6 +6607,7 @@
         <v>45882.362939814811</v>
       </c>
       <c r="I133" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.3629398148113978</v>
       </c>
       <c r="J133">
@@ -6521,6 +6649,7 @@
         <v>45882.362962962958</v>
       </c>
       <c r="I134" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.3629629629576812</v>
       </c>
       <c r="J134">
@@ -6562,6 +6691,7 @@
         <v>45882.362974537034</v>
       </c>
       <c r="I135" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.3629745370344608</v>
       </c>
       <c r="J135">
@@ -6603,6 +6733,7 @@
         <v>45883.371979166666</v>
       </c>
       <c r="I136" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.371967592589499</v>
       </c>
       <c r="J136">
@@ -6644,6 +6775,7 @@
         <v>45883.372002314813</v>
       </c>
       <c r="I137" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.372002314812562</v>
       </c>
       <c r="J137">
@@ -6685,6 +6817,7 @@
         <v>45883.372025462959</v>
       </c>
       <c r="I138" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.3720254629588453</v>
       </c>
       <c r="J138">
@@ -6726,6 +6859,7 @@
         <v>45883.372048611112</v>
       </c>
       <c r="I139" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.3720486111124046</v>
       </c>
       <c r="J139">
@@ -6767,6 +6901,7 @@
         <v>45883.648425925923</v>
       </c>
       <c r="I140" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.6473495370373712</v>
       </c>
       <c r="J140">
@@ -6808,6 +6943,7 @@
         <v>45882.512731481482</v>
       </c>
       <c r="I141" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.512731481481751</v>
       </c>
       <c r="J141">
@@ -6849,6 +6985,7 @@
         <v>45877.581354166665</v>
       </c>
       <c r="I142" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-1.5813541666648234</v>
       </c>
       <c r="J142">
@@ -6890,6 +7027,7 @@
         <v>45880.500150462962</v>
       </c>
       <c r="I143" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-4.5001504629617557</v>
       </c>
       <c r="J143">
@@ -6931,6 +7069,7 @@
         <v>45882.519282407404</v>
       </c>
       <c r="I144" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.5192708333343035</v>
       </c>
       <c r="J144">
@@ -6972,6 +7111,7 @@
         <v>45880.544293981482</v>
       </c>
       <c r="I145" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-4.544293981482042</v>
       </c>
       <c r="J145">
@@ -7013,6 +7153,7 @@
         <v>45883.619282407402</v>
       </c>
       <c r="I146" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.6190046296251239</v>
       </c>
       <c r="J146">
@@ -7054,6 +7195,7 @@
         <v>45876.4602662037</v>
       </c>
       <c r="I147" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-0.45736111111182254</v>
       </c>
       <c r="J147">
@@ -7095,6 +7237,7 @@
         <v>45880.507210648146</v>
       </c>
       <c r="I148" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-4.5072106481457013</v>
       </c>
       <c r="J148">
@@ -7136,6 +7279,7 @@
         <v>45882.512789351851</v>
       </c>
       <c r="I149" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.5127777777743177</v>
       </c>
       <c r="J149">
@@ -7177,6 +7321,7 @@
         <v>45882.512662037036</v>
       </c>
       <c r="I150" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.5126504629588453</v>
       </c>
       <c r="J150">
@@ -7218,6 +7363,7 @@
         <v>45880.48097222222</v>
       </c>
       <c r="I151" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-4.4806249999965075</v>
       </c>
       <c r="J151">
@@ -7259,6 +7405,7 @@
         <v>45883.696250000001</v>
       </c>
       <c r="I152" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.6954050925924093</v>
       </c>
       <c r="J152">
@@ -7300,6 +7447,7 @@
         <v>45881.407002314816</v>
       </c>
       <c r="I153" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-5.4070023148160544</v>
       </c>
       <c r="J153">
@@ -7341,6 +7489,7 @@
         <v>45882.51253472222</v>
       </c>
       <c r="I154" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.512523148143373</v>
       </c>
       <c r="J154">
@@ -7382,6 +7531,7 @@
         <v>45882.52175925926</v>
       </c>
       <c r="I155" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.5217592592598521</v>
       </c>
       <c r="J155">
@@ -7423,6 +7573,7 @@
         <v>45876.50168981481</v>
       </c>
       <c r="I156" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-0.5013078703705105</v>
       </c>
       <c r="J156">
@@ -7464,6 +7615,7 @@
         <v>45880.311342592591</v>
       </c>
       <c r="I157" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-4.3104398148134351</v>
       </c>
       <c r="J157">
@@ -7505,6 +7657,7 @@
         <v>45880.682187499995</v>
       </c>
       <c r="I158" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-4.679965277777228</v>
       </c>
       <c r="J158">
@@ -7546,6 +7699,7 @@
         <v>45880.507071759261</v>
       </c>
       <c r="I159" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-4.5070717592607252</v>
       </c>
       <c r="J159">
@@ -7587,6 +7741,7 @@
         <v>45877.581377314811</v>
       </c>
       <c r="I160" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-1.5813773148111068</v>
       </c>
       <c r="J160">
@@ -7628,6 +7783,7 @@
         <v>45882.51935185185</v>
       </c>
       <c r="I161" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.5193518518499332</v>
       </c>
       <c r="J161">
@@ -7669,6 +7825,7 @@
         <v>45883.413437499999</v>
       </c>
       <c r="I162" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.4130787036992842</v>
       </c>
       <c r="J162">
@@ -7710,6 +7867,7 @@
         <v>45866.528310185182</v>
       </c>
       <c r="I163" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-20.528310185181908</v>
       </c>
       <c r="J163">
@@ -7751,6 +7909,7 @@
         <v>45869.501446759255</v>
       </c>
       <c r="I164" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-23.501446759255487</v>
       </c>
       <c r="J164">
@@ -7792,6 +7951,7 @@
         <v>45873.565578703703</v>
       </c>
       <c r="I165" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-27.565578703703068</v>
       </c>
       <c r="J165">
@@ -7833,6 +7993,7 @@
         <v>45876.518402777772</v>
       </c>
       <c r="I166" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-30.517835648148321</v>
       </c>
       <c r="J166">
@@ -7874,6 +8035,7 @@
         <v>45883.465833333328</v>
       </c>
       <c r="I167" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-37.465833333328192</v>
       </c>
       <c r="J167">
@@ -7915,6 +8077,7 @@
         <v>45876.461180555554</v>
       </c>
       <c r="I168" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-0.46116898147738539</v>
       </c>
       <c r="J168">
@@ -7956,6 +8119,7 @@
         <v>45881.407129629624</v>
       </c>
       <c r="I169" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-5.4071064814779675</v>
       </c>
       <c r="J169">
@@ -7997,6 +8161,7 @@
         <v>45883.409722222219</v>
       </c>
       <c r="I170" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.4097106481494848</v>
       </c>
       <c r="J170">
@@ -8038,6 +8203,7 @@
         <v>45876.438402777778</v>
       </c>
       <c r="I171" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-5.4379282407389837</v>
       </c>
       <c r="J171">
@@ -8079,6 +8245,7 @@
         <v>45882.361284722218</v>
       </c>
       <c r="I172" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-11.361284722217533</v>
       </c>
       <c r="J172">
@@ -8120,6 +8287,7 @@
         <v>45860.528344907405</v>
       </c>
       <c r="I173" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-14.528344907404971</v>
       </c>
       <c r="J173">
@@ -8161,6 +8329,7 @@
         <v>45867.554965277777</v>
       </c>
       <c r="I174" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-21.554965277777228</v>
       </c>
       <c r="J174">
@@ -8202,6 +8371,7 @@
         <v>45870.455763888887</v>
       </c>
       <c r="I175" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-24.455763888887304</v>
       </c>
       <c r="J175">
@@ -8243,6 +8413,7 @@
         <v>45874.540509259255</v>
       </c>
       <c r="I176" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-28.540509259255487</v>
       </c>
       <c r="J176">
@@ -8284,6 +8455,7 @@
         <v>45875.382094907407</v>
       </c>
       <c r="I177" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-29.382094907407009</v>
       </c>
       <c r="J177">
@@ -8325,6 +8497,7 @@
         <v>45875.671620370369</v>
       </c>
       <c r="I178" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-29.671157407407009</v>
       </c>
       <c r="J178">
@@ -8366,6 +8539,7 @@
         <v>45877.57476851852</v>
       </c>
       <c r="I179" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-31.574768518519704</v>
       </c>
       <c r="J179">
@@ -8407,6 +8581,7 @@
         <v>45877.580057870371</v>
       </c>
       <c r="I180" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-31.580046296294313</v>
       </c>
       <c r="J180">
@@ -8448,6 +8623,7 @@
         <v>45881.439560185187</v>
       </c>
       <c r="I181" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-35.439548611109785</v>
       </c>
       <c r="J181">
@@ -8489,6 +8665,7 @@
         <v>45883.465740740736</v>
       </c>
       <c r="I182" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-37.465740740735782</v>
       </c>
       <c r="J182">
@@ -8530,6 +8707,7 @@
         <v>45882.521736111106</v>
       </c>
       <c r="I183" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.5217245370367891</v>
       </c>
       <c r="J183">
@@ -8571,6 +8749,7 @@
         <v>45882.512696759259</v>
       </c>
       <c r="I184" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.512696759258688</v>
       </c>
       <c r="J184">
@@ -8612,6 +8791,7 @@
         <v>45882.519212962958</v>
       </c>
       <c r="I185" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-6.5192013888881775</v>
       </c>
       <c r="J185">
@@ -8653,6 +8833,7 @@
         <v>45883.414212962962</v>
       </c>
       <c r="I186" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.4139467592540313</v>
       </c>
       <c r="J186">
@@ -8694,6 +8875,7 @@
         <v>45881.439444444441</v>
       </c>
       <c r="I187" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-5.4394444444405963</v>
       </c>
       <c r="J187">
@@ -8735,6 +8917,7 @@
         <v>45877.574872685182</v>
       </c>
       <c r="I188" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-1.5748611111121136</v>
       </c>
       <c r="J188">
@@ -8776,6 +8959,7 @@
         <v>45883.465856481482</v>
       </c>
       <c r="I189" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-7.465856481481751</v>
       </c>
       <c r="J189">
@@ -8817,6 +9001,7 @@
         <v>45874.407418981478</v>
       </c>
       <c r="I190" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-13.406701388885267</v>
       </c>
       <c r="J190">
@@ -8858,6 +9043,7 @@
         <v>45874.406192129631</v>
       </c>
       <c r="I191" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-28.40435185185197</v>
       </c>
       <c r="J191">
@@ -8899,6 +9085,7 @@
         <v>45874.581655092588</v>
       </c>
       <c r="I192" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-28.579942129625124</v>
       </c>
       <c r="J192">
@@ -8940,6 +9127,7 @@
         <v>45883.609884259255</v>
       </c>
       <c r="I193" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-37.609108796292276</v>
       </c>
       <c r="J193">
@@ -8981,6 +9169,7 @@
         <v>45856.283530092587</v>
       </c>
       <c r="I194" s="7">
+        <f t="shared" ca="1" si="2"/>
         <v>-10.281041666661622</v>
       </c>
       <c r="J194">
@@ -9022,6 +9211,7 @@
         <v>45863.28329861111</v>
       </c>
       <c r="I195" s="7">
+        <f t="shared" ref="I195:I258" ca="1" si="3">TODAY()-G195</f>
         <v>-17.282870370370802</v>
       </c>
       <c r="J195">
@@ -9063,6 +9253,7 @@
         <v>45876.494710648149</v>
       </c>
       <c r="I196" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-0.49471064814861165</v>
       </c>
       <c r="J196">
@@ -9104,6 +9295,7 @@
         <v>45877.586585648147</v>
       </c>
       <c r="I197" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-1.5865740740700858</v>
       </c>
       <c r="J197">
@@ -9145,6 +9337,7 @@
         <v>45880.568020833329</v>
       </c>
       <c r="I198" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-4.567210648143373</v>
       </c>
       <c r="J198">
@@ -9186,6 +9379,7 @@
         <v>45882.512465277774</v>
       </c>
       <c r="I199" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-6.5124652777740266</v>
       </c>
       <c r="J199">
@@ -9227,6 +9421,7 @@
         <v>45877.31108796296</v>
       </c>
       <c r="I200" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-1.3100115740744513</v>
       </c>
       <c r="J200">
@@ -9268,6 +9463,7 @@
         <v>45881.605520833335</v>
       </c>
       <c r="I201" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-5.6055208333345945</v>
       </c>
       <c r="J201">
@@ -9309,6 +9505,7 @@
         <v>45883.403819444444</v>
       </c>
       <c r="I202" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-7.4038194444437977</v>
       </c>
       <c r="J202">
@@ -9350,6 +9547,7 @@
         <v>45881.407048611109</v>
       </c>
       <c r="I203" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-5.4070486111086211</v>
       </c>
       <c r="J203">
@@ -9391,6 +9589,7 @@
         <v>45866.528182870366</v>
       </c>
       <c r="I204" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-20.528171296296932</v>
       </c>
       <c r="J204">
@@ -9432,6 +9631,7 @@
         <v>45869.501331018517</v>
       </c>
       <c r="I205" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-23.501319444440014</v>
       </c>
       <c r="J205">
@@ -9473,6 +9673,7 @@
         <v>45873.565520833334</v>
       </c>
       <c r="I206" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-27.565509259256942</v>
       </c>
       <c r="J206">
@@ -9514,6 +9715,7 @@
         <v>45876.521238425921</v>
       </c>
       <c r="I207" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-30.521041666666861</v>
       </c>
       <c r="J207">
@@ -9555,6 +9757,7 @@
         <v>45883.465717592589</v>
       </c>
       <c r="I208" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-37.465717592589499</v>
       </c>
       <c r="J208">
@@ -9596,6 +9799,7 @@
         <v>45880.475034722222</v>
       </c>
       <c r="I209" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-4.4745833333290648</v>
       </c>
       <c r="J209">
@@ -9637,6 +9841,7 @@
         <v>45877.594687500001</v>
       </c>
       <c r="I210" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-1.5946875000008731</v>
       </c>
       <c r="J210">
@@ -9678,6 +9883,7 @@
         <v>45880.476921296293</v>
       </c>
       <c r="I211" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-4.476493055553874</v>
       </c>
       <c r="J211">
@@ -9719,6 +9925,7 @@
         <v>45882.512638888889</v>
       </c>
       <c r="I212" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-6.512627314812562</v>
       </c>
       <c r="J212">
@@ -9760,6 +9967,7 @@
         <v>45880.476331018515</v>
       </c>
       <c r="I213" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-4.4760995370379533</v>
       </c>
       <c r="J213">
@@ -9801,6 +10009,7 @@
         <v>45883.394571759258</v>
       </c>
       <c r="I214" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-7.3945717592578148</v>
       </c>
       <c r="J214">
@@ -9842,6 +10051,7 @@
         <v>45881.462777777779</v>
       </c>
       <c r="I215" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-5.4627777777786832</v>
       </c>
       <c r="J215">
@@ -9883,6 +10093,7 @@
         <v>45881.504178240742</v>
       </c>
       <c r="I216" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-5.5041782407424762</v>
       </c>
       <c r="J216">
@@ -9924,6 +10135,7 @@
         <v>45883.618032407408</v>
       </c>
       <c r="I217" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-7.6166203703687643</v>
       </c>
       <c r="J217">
@@ -9965,6 +10177,7 @@
         <v>45846.438090277778</v>
       </c>
       <c r="I218" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-0.43809027777751908</v>
       </c>
       <c r="J218">
@@ -10006,6 +10219,7 @@
         <v>45846.438125000001</v>
       </c>
       <c r="I219" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-0.43811342592380242</v>
       </c>
       <c r="J219">
@@ -10047,6 +10261,7 @@
         <v>45849.60251157407</v>
       </c>
       <c r="I220" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-3.6019444444391411</v>
       </c>
       <c r="J220">
@@ -10088,6 +10303,7 @@
         <v>45853.415949074071</v>
       </c>
       <c r="I221" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-7.4141087962925667</v>
       </c>
       <c r="J221">
@@ -10129,6 +10345,7 @@
         <v>45853.418020833335</v>
       </c>
       <c r="I222" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-7.4176967592575238</v>
       </c>
       <c r="J222">
@@ -10170,6 +10387,7 @@
         <v>45855.588634259257</v>
       </c>
       <c r="I223" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-9.5882175925871707</v>
       </c>
       <c r="J223">
@@ -10211,6 +10429,7 @@
         <v>45860.450138888889</v>
       </c>
       <c r="I224" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-14.447997685179871</v>
       </c>
       <c r="J224">
@@ -10252,6 +10471,7 @@
         <v>45861.562060185184</v>
       </c>
       <c r="I225" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-15.562048611107457</v>
       </c>
       <c r="J225">
@@ -10293,6 +10513,7 @@
         <v>45861.562083333331</v>
       </c>
       <c r="I226" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-15.56208333333052</v>
       </c>
       <c r="J226">
@@ -10334,6 +10555,7 @@
         <v>45861.562106481477</v>
       </c>
       <c r="I227" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-15.562106481476803</v>
       </c>
       <c r="J227">
@@ -10375,6 +10597,7 @@
         <v>45866.540937500002</v>
       </c>
       <c r="I228" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-20.540925925924967</v>
       </c>
       <c r="J228">
@@ -10416,6 +10639,7 @@
         <v>45866.540960648148</v>
       </c>
       <c r="I229" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-20.54096064814803</v>
       </c>
       <c r="J229">
@@ -10457,6 +10681,7 @@
         <v>45867.594340277778</v>
       </c>
       <c r="I230" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-21.594328703700739</v>
       </c>
       <c r="J230">
@@ -10498,6 +10723,7 @@
         <v>45870.614722222221</v>
       </c>
       <c r="I231" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-24.614166666666279</v>
       </c>
       <c r="J231">
@@ -10539,6 +10765,7 @@
         <v>45870.684976851851</v>
       </c>
       <c r="I232" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-24.684340277774027</v>
       </c>
       <c r="J232">
@@ -10580,6 +10807,7 @@
         <v>45874.485219907408</v>
       </c>
       <c r="I233" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-28.485219907408464</v>
       </c>
       <c r="J233">
@@ -10621,6 +10849,7 @@
         <v>45874.485231481478</v>
       </c>
       <c r="I234" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-28.485231481477967</v>
       </c>
       <c r="J234">
@@ -10662,6 +10891,7 @@
         <v>45874.485266203701</v>
       </c>
       <c r="I235" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-28.48526620370103</v>
       </c>
       <c r="J235">
@@ -10703,6 +10933,7 @@
         <v>45880.541770833333</v>
       </c>
       <c r="I236" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-34.541759259256651</v>
       </c>
       <c r="J236">
@@ -10744,6 +10975,7 @@
         <v>45881.499236111107</v>
       </c>
       <c r="I237" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-35.499224537037662</v>
       </c>
       <c r="J237">
@@ -10785,6 +11017,7 @@
         <v>45883.620034722218</v>
       </c>
       <c r="I238" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-37.619444444440887</v>
       </c>
       <c r="J238">
@@ -10826,6 +11059,7 @@
         <v>45876.35765046296</v>
       </c>
       <c r="I239" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-0.35763888889050577</v>
       </c>
       <c r="J239">
@@ -10867,6 +11101,7 @@
         <v>45877.602372685185</v>
       </c>
       <c r="I240" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-1.6023726851854008</v>
       </c>
       <c r="J240">
@@ -10908,6 +11143,7 @@
         <v>45880.54179398148</v>
       </c>
       <c r="I241" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-4.541782407402934</v>
       </c>
       <c r="J241">
@@ -10949,6 +11185,7 @@
         <v>45876.520451388889</v>
       </c>
       <c r="I242" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-0.52015046295855427</v>
       </c>
       <c r="J242">
@@ -10990,6 +11227,7 @@
         <v>45881.461099537039</v>
       </c>
       <c r="I243" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-5.4606134259229293</v>
       </c>
       <c r="J243">
@@ -11031,6 +11269,7 @@
         <v>45883.55945601852</v>
       </c>
       <c r="I244" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-7.5594444444432156</v>
       </c>
       <c r="J244">
@@ -11072,6 +11311,7 @@
         <v>45877.569907407407</v>
       </c>
       <c r="I245" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-1.56989583333052</v>
       </c>
       <c r="J245">
@@ -11113,6 +11353,7 @@
         <v>45882.512615740736</v>
       </c>
       <c r="I246" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-6.5126157407357823</v>
       </c>
       <c r="J246">
@@ -11154,6 +11395,7 @@
         <v>45882.58289351852</v>
       </c>
       <c r="I247" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-6.5828819444432156</v>
       </c>
       <c r="J247">
@@ -11195,6 +11437,7 @@
         <v>45876.646678240737</v>
       </c>
       <c r="I248" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-0.64574074073607335</v>
       </c>
       <c r="J248">
@@ -11236,6 +11479,7 @@
         <v>45883.393796296295</v>
       </c>
       <c r="I249" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-7.3937847222186974</v>
       </c>
       <c r="J249">
@@ -11277,6 +11521,7 @@
         <v>45881.439571759256</v>
       </c>
       <c r="I250" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-5.4395717592560686</v>
       </c>
       <c r="J250">
@@ -11318,6 +11563,7 @@
         <v>45883.55940972222</v>
       </c>
       <c r="I251" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-7.559398148143373</v>
       </c>
       <c r="J251">
@@ -11359,6 +11605,7 @@
         <v>45883.559351851851</v>
       </c>
       <c r="I252" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-7.5593518518508063</v>
       </c>
       <c r="J252">
@@ -11400,6 +11647,7 @@
         <v>45877.568229166667</v>
       </c>
       <c r="I253" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-1.5682175925903721</v>
       </c>
       <c r="J253">
@@ -11441,6 +11689,7 @@
         <v>45877.589421296296</v>
       </c>
       <c r="I254" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-1.5894212962957681</v>
       </c>
       <c r="J254">
@@ -11482,6 +11731,7 @@
         <v>45882.472280092588</v>
       </c>
       <c r="I255" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-6.4722800925883348</v>
       </c>
       <c r="J255">
@@ -11523,6 +11773,7 @@
         <v>45877.568090277775</v>
       </c>
       <c r="I256" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-1.5680902777748997</v>
       </c>
       <c r="J256">
@@ -11564,6 +11815,7 @@
         <v>45882.471898148149</v>
       </c>
       <c r="I257" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-6.4718865740724141</v>
       </c>
       <c r="J257">
@@ -11605,6 +11857,7 @@
         <v>45882.47206018518</v>
       </c>
       <c r="I258" s="7">
+        <f t="shared" ca="1" si="3"/>
         <v>-6.4720601851804531</v>
       </c>
       <c r="J258">
@@ -11646,6 +11899,7 @@
         <v>45877.569988425923</v>
       </c>
       <c r="I259" s="7">
+        <f t="shared" ref="I259:I322" ca="1" si="4">TODAY()-G259</f>
         <v>-1.5699768518534256</v>
       </c>
       <c r="J259">
@@ -11687,6 +11941,7 @@
         <v>45882.472326388888</v>
       </c>
       <c r="I260" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.4723263888881775</v>
       </c>
       <c r="J260">
@@ -11728,6 +11983,7 @@
         <v>45876.635011574072</v>
       </c>
       <c r="I261" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-0.63481481480994262</v>
       </c>
       <c r="J261">
@@ -11769,6 +12025,7 @@
         <v>45881.605543981481</v>
       </c>
       <c r="I262" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-5.6055439814808778</v>
       </c>
       <c r="J262">
@@ -11810,6 +12067,7 @@
         <v>45881.462719907402</v>
       </c>
       <c r="I263" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-5.4627199074020609</v>
       </c>
       <c r="J263">
@@ -11851,6 +12109,7 @@
         <v>45877.476655092592</v>
       </c>
       <c r="I264" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-1.4706018518481869</v>
       </c>
       <c r="J264">
@@ -11892,6 +12151,7 @@
         <v>45883.567129629628</v>
       </c>
       <c r="I265" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-7.5666782407424762</v>
       </c>
       <c r="J265">
@@ -11933,6 +12193,7 @@
         <v>45877.590266203704</v>
       </c>
       <c r="I266" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-1.5902662037042319</v>
       </c>
       <c r="J266">
@@ -11974,6 +12235,7 @@
         <v>45882.471921296295</v>
       </c>
       <c r="I267" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.4719212962954771</v>
       </c>
       <c r="J267">
@@ -12015,6 +12277,7 @@
         <v>45882.471956018519</v>
       </c>
       <c r="I268" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.4719444444417604</v>
       </c>
       <c r="J268">
@@ -12056,6 +12319,7 @@
         <v>45882.472175925926</v>
       </c>
       <c r="I269" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.4721759259264218</v>
       </c>
       <c r="J269">
@@ -12097,6 +12361,7 @@
         <v>45880.507175925923</v>
       </c>
       <c r="I270" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-4.5071643518531346</v>
       </c>
       <c r="J270">
@@ -12138,6 +12403,7 @@
         <v>45883.465763888889</v>
       </c>
       <c r="I271" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-7.465752314812562</v>
       </c>
       <c r="J271">
@@ -12179,6 +12445,7 @@
         <v>45881.679826388885</v>
       </c>
       <c r="I272" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-5.6788425925915362</v>
       </c>
       <c r="J272">
@@ -12220,6 +12487,7 @@
         <v>45882.516168981478</v>
       </c>
       <c r="I273" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5159953703696374</v>
       </c>
       <c r="J273">
@@ -12261,6 +12529,7 @@
         <v>45883.403854166667</v>
       </c>
       <c r="I274" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-7.403842592590081</v>
       </c>
       <c r="J274">
@@ -12302,6 +12571,7 @@
         <v>45883.405740740738</v>
       </c>
       <c r="I275" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-7.4057407407381106</v>
       </c>
       <c r="J275">
@@ -12343,6 +12613,7 @@
         <v>45882.521793981483</v>
       </c>
       <c r="I276" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5217824074061355</v>
       </c>
       <c r="J276">
@@ -12384,6 +12655,7 @@
         <v>45848.309965277775</v>
       </c>
       <c r="I277" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-2.3090509259272949</v>
       </c>
       <c r="J277">
@@ -12425,6 +12697,7 @@
         <v>45863.287939814814</v>
       </c>
       <c r="I278" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-17.283518518517667</v>
       </c>
       <c r="J278">
@@ -12466,6 +12739,7 @@
         <v>45863.288368055553</v>
       </c>
       <c r="I279" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-17.288171296291694</v>
       </c>
       <c r="J279">
@@ -12507,6 +12781,7 @@
         <v>45863.645879629628</v>
       </c>
       <c r="I280" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-17.645879629628325</v>
       </c>
       <c r="J280">
@@ -12548,6 +12823,7 @@
         <v>45877.477210648147</v>
       </c>
       <c r="I281" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-31.476863425923511</v>
       </c>
       <c r="J281">
@@ -12589,6 +12865,7 @@
         <v>45876.461145833331</v>
       </c>
       <c r="I282" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-0.46114583333110204</v>
       </c>
       <c r="J282">
@@ -12630,6 +12907,7 @@
         <v>45882.512673611112</v>
       </c>
       <c r="I283" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5126736111124046</v>
       </c>
       <c r="J283">
@@ -12671,6 +12949,7 @@
         <v>45882.472303240742</v>
       </c>
       <c r="I284" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.4723032407418941</v>
       </c>
       <c r="J284">
@@ -12712,6 +12991,7 @@
         <v>45877.581400462965</v>
       </c>
       <c r="I285" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-1.5814004629646661</v>
       </c>
       <c r="J285">
@@ -12753,6 +13033,7 @@
         <v>45877.594710648147</v>
       </c>
       <c r="I286" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-1.5947106481471565</v>
       </c>
       <c r="J286">
@@ -12794,6 +13075,7 @@
         <v>45877.583541666667</v>
       </c>
       <c r="I287" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-1.5835416666668607</v>
       </c>
       <c r="J287">
@@ -12835,6 +13117,7 @@
         <v>45882.512592592589</v>
       </c>
       <c r="I288" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5125810185199953</v>
       </c>
       <c r="J288">
@@ -12876,6 +13159,7 @@
         <v>45882.472407407404</v>
       </c>
       <c r="I289" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.4723958333343035</v>
       </c>
       <c r="J289">
@@ -12917,6 +13201,7 @@
         <v>45876.520879629628</v>
       </c>
       <c r="I290" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-0.52059027777431766</v>
       </c>
       <c r="J290">
@@ -12958,6 +13243,7 @@
         <v>45883.465567129628</v>
       </c>
       <c r="I291" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-7.4655671296277433</v>
       </c>
       <c r="J291">
@@ -12999,6 +13285,7 @@
         <v>45863.488993055551</v>
       </c>
       <c r="I292" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-17.488993055550964</v>
       </c>
       <c r="J292">
@@ -13040,6 +13327,7 @@
         <v>45870.502789351849</v>
       </c>
       <c r="I293" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-24.50278935184906</v>
       </c>
       <c r="J293">
@@ -13081,6 +13369,7 @@
         <v>45880.503564814811</v>
       </c>
       <c r="I294" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-4.502337962963793</v>
       </c>
       <c r="J294">
@@ -13122,6 +13411,7 @@
         <v>45882.519259259258</v>
       </c>
       <c r="I295" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5192592592575238</v>
       </c>
       <c r="J295">
@@ -13163,6 +13453,7 @@
         <v>45882.363032407404</v>
       </c>
       <c r="I296" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.3630324074038072</v>
       </c>
       <c r="J296">
@@ -13204,6 +13495,7 @@
         <v>45882.519097222219</v>
       </c>
       <c r="I297" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5190856481494848</v>
       </c>
       <c r="J297">
@@ -13245,6 +13537,7 @@
         <v>45883.465509259258</v>
       </c>
       <c r="I298" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-7.4654976851816173</v>
       </c>
       <c r="J298">
@@ -13286,6 +13579,7 @@
         <v>45880.475914351853</v>
       </c>
       <c r="I299" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-4.4752893518525525</v>
       </c>
       <c r="J299">
@@ -13327,6 +13621,7 @@
         <v>45882.512442129628</v>
       </c>
       <c r="I300" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5124421296277433</v>
       </c>
       <c r="J300">
@@ -13368,6 +13663,7 @@
         <v>45877.583564814813</v>
       </c>
       <c r="I301" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-1.583564814813144</v>
       </c>
       <c r="J301">
@@ -13409,6 +13705,7 @@
         <v>45880.428182870368</v>
       </c>
       <c r="I302" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-4.4277777777751908</v>
       </c>
       <c r="J302">
@@ -13450,6 +13747,7 @@
         <v>45876.52475694444</v>
       </c>
       <c r="I303" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-0.52215277777577285</v>
       </c>
       <c r="J303">
@@ -13491,6 +13789,7 @@
         <v>45880.5071412037</v>
       </c>
       <c r="I304" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-4.5071412036995753</v>
       </c>
       <c r="J304">
@@ -13532,6 +13831,7 @@
         <v>45883.559293981481</v>
       </c>
       <c r="I305" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-7.5592824074046803</v>
       </c>
       <c r="J305">
@@ -13573,6 +13873,7 @@
         <v>45877.581331018519</v>
       </c>
       <c r="I306" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-1.5813310185185401</v>
       </c>
       <c r="J306">
@@ -13614,6 +13915,7 @@
         <v>45880.500127314815</v>
       </c>
       <c r="I307" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-4.5001157407386927</v>
       </c>
       <c r="J307">
@@ -13655,6 +13957,7 @@
         <v>45882.519236111111</v>
       </c>
       <c r="I308" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5192245370344608</v>
       </c>
       <c r="J308">
@@ -13696,6 +13999,7 @@
         <v>45853.353888888887</v>
       </c>
       <c r="I309" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-7.3530208333322662</v>
       </c>
       <c r="J309">
@@ -13737,6 +14041,7 @@
         <v>45867.359340277777</v>
       </c>
       <c r="I310" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-21.358495370368473</v>
       </c>
       <c r="J310">
@@ -13778,6 +14083,7 @@
         <v>45875.332268518519</v>
       </c>
       <c r="I311" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-29.331585648149485</v>
       </c>
       <c r="J311">
@@ -13819,6 +14125,7 @@
         <v>45875.332824074074</v>
       </c>
       <c r="I312" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-29.332488425927295</v>
       </c>
       <c r="J312">
@@ -13860,6 +14167,7 @@
         <v>45882.62773148148</v>
       </c>
       <c r="I313" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-36.619097222217533</v>
       </c>
       <c r="J313">
@@ -13901,6 +14209,7 @@
         <v>45882.629641203705</v>
       </c>
       <c r="I314" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-36.629409722219862</v>
       </c>
       <c r="J314">
@@ -13942,6 +14251,7 @@
         <v>45882.357546296291</v>
       </c>
       <c r="I315" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.3575462962908205</v>
       </c>
       <c r="J315">
@@ -13983,6 +14293,7 @@
         <v>45882.512488425928</v>
       </c>
       <c r="I316" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5124884259275859</v>
       </c>
       <c r="J316">
@@ -14024,6 +14335,7 @@
         <v>45882.512511574074</v>
       </c>
       <c r="I317" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-6.5125115740738693</v>
       </c>
       <c r="J317">
@@ -14065,6 +14377,7 @@
         <v>45877.623020833329</v>
       </c>
       <c r="I318" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-1.6227199074055534</v>
       </c>
       <c r="J318">
@@ -14106,6 +14419,7 @@
         <v>45876.582361111112</v>
       </c>
       <c r="I319" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-0.58156249999592546</v>
       </c>
       <c r="J319">
@@ -14147,6 +14461,7 @@
         <v>45876.606504629628</v>
       </c>
       <c r="I320" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-0.60497685184964212</v>
       </c>
       <c r="J320">
@@ -14188,6 +14503,7 @@
         <v>45880.507106481477</v>
       </c>
       <c r="I321" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-4.5070949074070086</v>
       </c>
       <c r="J321">
@@ -14229,6 +14545,7 @@
         <v>45876.462129629625</v>
       </c>
       <c r="I322" s="7">
+        <f t="shared" ca="1" si="4"/>
         <v>-0.46212962962454185</v>
       </c>
       <c r="J322">
@@ -14270,6 +14587,7 @@
         <v>45876.461076388885</v>
       </c>
       <c r="I323" s="7">
+        <f t="shared" ref="I323:I378" ca="1" si="5">TODAY()-G323</f>
         <v>-0.46107638888497604</v>
       </c>
       <c r="J323">
@@ -14311,6 +14629,7 @@
         <v>45882.472013888888</v>
       </c>
       <c r="I324" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.4720023148111068</v>
       </c>
       <c r="J324">
@@ -14352,6 +14671,7 @@
         <v>45883.628379629627</v>
       </c>
       <c r="I325" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.627511574071832</v>
       </c>
       <c r="J325">
@@ -14393,6 +14713,7 @@
         <v>45876.357685185183</v>
       </c>
       <c r="I326" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-0.35767361110629281</v>
       </c>
       <c r="J326">
@@ -14434,6 +14755,7 @@
         <v>45883.559374999997</v>
       </c>
       <c r="I327" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.5593749999970896</v>
       </c>
       <c r="J327">
@@ -14475,6 +14797,7 @@
         <v>45882.472094907404</v>
       </c>
       <c r="I328" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.4720833333340124</v>
       </c>
       <c r="J328">
@@ -14516,6 +14839,7 @@
         <v>45877.583622685182</v>
       </c>
       <c r="I329" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-1.5836111111057107</v>
       </c>
       <c r="J329">
@@ -14557,6 +14881,7 @@
         <v>45856.622523148144</v>
       </c>
       <c r="I330" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-10.621446759258106</v>
       </c>
       <c r="J330">
@@ -14598,6 +14923,7 @@
         <v>45882.616122685184</v>
       </c>
       <c r="I331" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-36.611527777778974</v>
       </c>
       <c r="J331">
@@ -14639,6 +14965,7 @@
         <v>45882.472384259258</v>
       </c>
       <c r="I332" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.4723842592575238</v>
       </c>
       <c r="J332">
@@ -14680,6 +15007,7 @@
         <v>45882.512754629628</v>
       </c>
       <c r="I333" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.5127546296280343</v>
       </c>
       <c r="J333">
@@ -14721,6 +15049,7 @@
         <v>45877.584652777776</v>
       </c>
       <c r="I334" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-1.5846412036989932</v>
       </c>
       <c r="J334">
@@ -14762,6 +15091,7 @@
         <v>45876.437777777777</v>
       </c>
       <c r="I335" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-0.437569444446126</v>
       </c>
       <c r="J335">
@@ -14803,6 +15133,7 @@
         <v>45881.407094907408</v>
       </c>
       <c r="I336" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-5.4070949074084638</v>
       </c>
       <c r="J336">
@@ -14844,6 +15175,7 @@
         <v>45876.521979166668</v>
       </c>
       <c r="I337" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-0.52148148148262408</v>
       </c>
       <c r="J337">
@@ -14885,6 +15217,7 @@
         <v>45882.357488425921</v>
       </c>
       <c r="I338" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.3574768518519704</v>
       </c>
       <c r="J338">
@@ -14926,6 +15259,7 @@
         <v>45883.403796296298</v>
       </c>
       <c r="I339" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.4037962962975143</v>
       </c>
       <c r="J339">
@@ -14967,6 +15301,7 @@
         <v>45882.357453703698</v>
       </c>
       <c r="I340" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.3574421296289074</v>
       </c>
       <c r="J340">
@@ -15008,6 +15343,7 @@
         <v>45876.494756944441</v>
       </c>
       <c r="I341" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-0.49475694444117835</v>
       </c>
       <c r="J341">
@@ -15049,6 +15385,7 @@
         <v>45883.402013888888</v>
       </c>
       <c r="I342" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.4017129629646661</v>
       </c>
       <c r="J342">
@@ -15090,6 +15427,7 @@
         <v>45883.710428240738</v>
       </c>
       <c r="I343" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.7090740740750334</v>
       </c>
       <c r="J343">
@@ -15131,6 +15469,7 @@
         <v>45880.3671412037</v>
       </c>
       <c r="I344" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-4.366736111107457</v>
       </c>
       <c r="J344">
@@ -15172,6 +15511,7 @@
         <v>45877.571921296294</v>
       </c>
       <c r="I345" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-1.5719097222172422</v>
       </c>
       <c r="J345">
@@ -15213,6 +15553,7 @@
         <v>45882.472210648149</v>
       </c>
       <c r="I346" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.4721990740727051</v>
       </c>
       <c r="J346">
@@ -15254,6 +15595,7 @@
         <v>45882.61142361111</v>
       </c>
       <c r="I347" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.6096064814773854</v>
       </c>
       <c r="J347">
@@ -15295,6 +15637,7 @@
         <v>45877.608587962961</v>
       </c>
       <c r="I348" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-1.6085879629608826</v>
       </c>
       <c r="J348">
@@ -15336,6 +15679,7 @@
         <v>45876.437384259254</v>
       </c>
       <c r="I349" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-0.43645833332993789</v>
       </c>
       <c r="J349">
@@ -15377,6 +15721,7 @@
         <v>45876.461122685185</v>
       </c>
       <c r="I350" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-0.46112268518481869</v>
       </c>
       <c r="J350">
@@ -15418,6 +15763,7 @@
         <v>45861.413124999999</v>
       </c>
       <c r="I351" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-0.41241898148291511</v>
       </c>
       <c r="J351">
@@ -15459,6 +15805,7 @@
         <v>45870.566817129627</v>
       </c>
       <c r="I352" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-9.5668171296274522</v>
       </c>
       <c r="J352">
@@ -15500,6 +15847,7 @@
         <v>45877.608981481477</v>
       </c>
       <c r="I353" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-1.6089814814768033</v>
       </c>
       <c r="J353">
@@ -15541,6 +15889,7 @@
         <v>45883.559432870366</v>
       </c>
       <c r="I354" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.559432870366436</v>
       </c>
       <c r="J354">
@@ -15582,6 +15931,7 @@
         <v>45881.407025462962</v>
       </c>
       <c r="I355" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-5.4070254629623378</v>
       </c>
       <c r="J355">
@@ -15623,6 +15973,7 @@
         <v>45883.424571759257</v>
       </c>
       <c r="I356" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.4229976851856918</v>
       </c>
       <c r="J356">
@@ -15664,6 +16015,7 @@
         <v>45877.568113425921</v>
       </c>
       <c r="I357" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-1.5681134259211831</v>
       </c>
       <c r="J357">
@@ -15705,6 +16057,7 @@
         <v>45877.349953703699</v>
       </c>
       <c r="I358" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-1.348912037035916</v>
       </c>
       <c r="J358">
@@ -15746,6 +16099,7 @@
         <v>45883.425208333334</v>
       </c>
       <c r="I359" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.424733796295186</v>
       </c>
       <c r="J359">
@@ -15787,6 +16141,7 @@
         <v>45882.574780092589</v>
       </c>
       <c r="I360" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.5747800925892079</v>
       </c>
       <c r="J360">
@@ -15828,6 +16183,7 @@
         <v>45883.566504629627</v>
       </c>
       <c r="I361" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.5641898148096516</v>
       </c>
       <c r="J361">
@@ -15869,6 +16225,7 @@
         <v>45883.465520833328</v>
       </c>
       <c r="I362" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.4655208333279006</v>
       </c>
       <c r="J362">
@@ -15910,6 +16267,7 @@
         <v>45877.578750000001</v>
       </c>
       <c r="I363" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-1.5787500000005821</v>
       </c>
       <c r="J363">
@@ -15951,6 +16309,7 @@
         <v>45883.465787037036</v>
       </c>
       <c r="I364" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.465787037035625</v>
       </c>
       <c r="J364">
@@ -15992,6 +16351,7 @@
         <v>45876.494699074072</v>
       </c>
       <c r="I365" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-0.494699074071832</v>
       </c>
       <c r="J365">
@@ -16033,6 +16393,7 @@
         <v>45883.393773148149</v>
       </c>
       <c r="I366" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.3937731481491937</v>
       </c>
       <c r="J366">
@@ -16074,6 +16435,7 @@
         <v>45883.393749999996</v>
       </c>
       <c r="I367" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.3937499999956344</v>
       </c>
       <c r="J367">
@@ -16115,6 +16477,7 @@
         <v>45883.390358796292</v>
       </c>
       <c r="I368" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.3892708333296468</v>
       </c>
       <c r="J368">
@@ -16156,6 +16519,7 @@
         <v>45861.54415509259</v>
       </c>
       <c r="I369" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-15.540416666663077</v>
       </c>
       <c r="J369">
@@ -16197,6 +16561,7 @@
         <v>45876.494733796295</v>
       </c>
       <c r="I370" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-0.494733796294895</v>
       </c>
       <c r="J370">
@@ -16238,6 +16603,7 @@
         <v>45883.393819444442</v>
       </c>
       <c r="I371" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-24</v>
       </c>
       <c r="J371">
@@ -16279,6 +16645,7 @@
         <v>45882.519189814811</v>
       </c>
       <c r="I372" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.5191898148113978</v>
       </c>
       <c r="J372">
@@ -16320,6 +16687,7 @@
         <v>45882.512384259258</v>
       </c>
       <c r="I373" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.5123726851816173</v>
       </c>
       <c r="J373">
@@ -16361,6 +16729,7 @@
         <v>45883.654907407406</v>
       </c>
       <c r="I374" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-7.6546759259217652</v>
       </c>
       <c r="J374">
@@ -16402,6 +16771,7 @@
         <v>45875.458287037036</v>
       </c>
       <c r="I375" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-29.458287037035916</v>
       </c>
       <c r="J375">
@@ -16443,6 +16813,7 @@
         <v>45882.471863425926</v>
       </c>
       <c r="I376" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-36.471863425926131</v>
       </c>
       <c r="J376">
@@ -16484,6 +16855,7 @@
         <v>45882.472129629627</v>
       </c>
       <c r="I377" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-36.472129629626579</v>
       </c>
       <c r="J377">
@@ -16525,6 +16897,7 @@
         <v>45882.574861111112</v>
       </c>
       <c r="I378" s="7">
+        <f t="shared" ca="1" si="5"/>
         <v>-6.5748611111121136</v>
       </c>
       <c r="J378">
